--- a/Projects/New_geodome/newgeodome_researchs.xlsx
+++ b/Projects/New_geodome/newgeodome_researchs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanstuder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanstuder/Documents/GitHub/Docs/Projects/New_geodome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB21FB9-7CFB-544C-93B2-CFD8E5207EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD33C0-A1FC-494A-B05E-2A326178B00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{946043D0-308E-554B-A8D5-D2459E03887B}"/>
   </bookViews>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
   <si>
     <t xml:space="preserve">Wood supplier standards </t>
   </si>
@@ -446,6 +446,27 @@
   </si>
   <si>
     <t xml:space="preserve">Wood supply details </t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/folia-tunelowa-6m-uv4-ogrodowa-ogrodnicza-4-letnia-11712188021</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>6m x 31m</t>
+  </si>
+  <si>
+    <t>Apr 6 / 8</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/folia-tunelowa-ogrodnicza-uv4-szer-6m-mocna-gruba-10525407125</t>
+  </si>
+  <si>
+    <t>1m x 6m</t>
+  </si>
+  <si>
+    <t>9 to 14 days</t>
   </si>
 </sst>
 </file>
@@ -759,8 +780,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A084EE86-417B-6B41-89DB-10D9325464C6}" name="Tableau14" displayName="Tableau14" ref="B15:N21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="B15:N21" xr:uid="{A084EE86-417B-6B41-89DB-10D9325464C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A084EE86-417B-6B41-89DB-10D9325464C6}" name="Tableau14" displayName="Tableau14" ref="B15:N23" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B15:N23" xr:uid="{A084EE86-417B-6B41-89DB-10D9325464C6}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{BDCA643E-A72C-1A49-9789-A9009CA6EB3E}" name="Victor's Options" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{0C456EB2-15F3-454F-8A64-23F7878D2716}" name="link " dataDxfId="10" dataCellStyle="Lien hypertexte"/>
@@ -1130,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAD028B-6615-CB4E-A27A-2B463C8462E3}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,19 +1688,111 @@
         <v>133.85</v>
       </c>
     </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="10">
+        <f>6*31</f>
+        <v>186</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <f>F22*G22</f>
+        <v>186</v>
+      </c>
+      <c r="I22" s="10">
+        <f>H22-$C$2</f>
+        <v>110.33</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="10">
+        <v>131.77000000000001</v>
+      </c>
+      <c r="L22" s="10">
+        <v>17.28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="10">
+        <f>K22*G22+L22</f>
+        <v>149.05000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>11</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="10">
+        <v>6</v>
+      </c>
+      <c r="G23" s="11">
+        <v>30</v>
+      </c>
+      <c r="H23" s="10">
+        <f>F23*G23</f>
+        <v>180</v>
+      </c>
+      <c r="I23" s="10">
+        <f>H23-$C$2</f>
+        <v>104.33</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4.08</v>
+      </c>
+      <c r="L23" s="10">
+        <v>17.28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="10">
+        <f>K23*G23+L23</f>
+        <v>139.68</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{1264F333-59B0-934A-A955-00130561EA2C}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{C4C6D63F-4386-CC42-8E57-26D1A3590857}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{88041546-9F05-CC40-A5F5-0F5D069086A0}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{7B68B67F-3FAB-0144-9420-E17E98D963A9}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{460E06DD-23BC-6342-8A08-1C855378B43A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="F17:F18 F19:F21" calculatedColumn="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId6"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
